--- a/Code/Results/Cases/Case_1_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9997301428600739</v>
+        <v>1.027962381949805</v>
       </c>
       <c r="D2">
-        <v>1.034343272100525</v>
+        <v>1.045231825614765</v>
       </c>
       <c r="E2">
-        <v>1.006206113422399</v>
+        <v>1.027988166594529</v>
       </c>
       <c r="F2">
-        <v>1.031275466046672</v>
+        <v>1.050191063879345</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046020004008012</v>
+        <v>1.037568581012903</v>
       </c>
       <c r="J2">
-        <v>1.021918928304623</v>
+        <v>1.033117341719321</v>
       </c>
       <c r="K2">
-        <v>1.045344019084143</v>
+        <v>1.04800064490111</v>
       </c>
       <c r="L2">
-        <v>1.017579659073814</v>
+        <v>1.030806292901606</v>
       </c>
       <c r="M2">
-        <v>1.042315623197453</v>
+        <v>1.052946027730943</v>
       </c>
       <c r="N2">
-        <v>1.023370170398555</v>
+        <v>1.034584486844778</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003775430633549</v>
+        <v>1.02882584588133</v>
       </c>
       <c r="D3">
-        <v>1.037112961608134</v>
+        <v>1.04584376820937</v>
       </c>
       <c r="E3">
-        <v>1.009402326005012</v>
+        <v>1.028719369715356</v>
       </c>
       <c r="F3">
-        <v>1.034800436907814</v>
+        <v>1.050999447347006</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047056203294612</v>
+        <v>1.037743714415541</v>
       </c>
       <c r="J3">
-        <v>1.024163700073355</v>
+        <v>1.033621654474429</v>
       </c>
       <c r="K3">
-        <v>1.047292015330489</v>
+        <v>1.048424505975594</v>
       </c>
       <c r="L3">
-        <v>1.01991629939578</v>
+        <v>1.031345543910449</v>
       </c>
       <c r="M3">
-        <v>1.045006591179091</v>
+        <v>1.053566818494378</v>
       </c>
       <c r="N3">
-        <v>1.025618130000678</v>
+        <v>1.035089515781843</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00634452026346</v>
+        <v>1.029385229942504</v>
       </c>
       <c r="D4">
-        <v>1.038875767819198</v>
+        <v>1.046240226850495</v>
       </c>
       <c r="E4">
-        <v>1.011438154427738</v>
+        <v>1.02919346116083</v>
       </c>
       <c r="F4">
-        <v>1.037045554580754</v>
+        <v>1.051523515572686</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047706349890465</v>
+        <v>1.037856141267098</v>
       </c>
       <c r="J4">
-        <v>1.025587313257926</v>
+        <v>1.033948004333404</v>
       </c>
       <c r="K4">
-        <v>1.048526588676488</v>
+        <v>1.04869856794312</v>
       </c>
       <c r="L4">
-        <v>1.021400463625575</v>
+        <v>1.031694761646936</v>
       </c>
       <c r="M4">
-        <v>1.046716522347393</v>
+        <v>1.053968846536131</v>
       </c>
       <c r="N4">
-        <v>1.027043764879261</v>
+        <v>1.035416329095051</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007413330088193</v>
+        <v>1.02962055273454</v>
       </c>
       <c r="D5">
-        <v>1.039609996401119</v>
+        <v>1.046407013703913</v>
       </c>
       <c r="E5">
-        <v>1.012286507799501</v>
+        <v>1.029392995884252</v>
       </c>
       <c r="F5">
-        <v>1.037981081659588</v>
+        <v>1.051744068839513</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047974889457558</v>
+        <v>1.03790319025516</v>
       </c>
       <c r="J5">
-        <v>1.026179064968803</v>
+        <v>1.034085206759929</v>
       </c>
       <c r="K5">
-        <v>1.049039538405896</v>
+        <v>1.048813733275878</v>
       </c>
       <c r="L5">
-        <v>1.022017933565534</v>
+        <v>1.031841639991947</v>
       </c>
       <c r="M5">
-        <v>1.047428074673923</v>
+        <v>1.054137937605476</v>
       </c>
       <c r="N5">
-        <v>1.027636356945443</v>
+        <v>1.035553726364759</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007592139599111</v>
+        <v>1.029660073672571</v>
       </c>
       <c r="D6">
-        <v>1.039732879599394</v>
+        <v>1.046435024677215</v>
       </c>
       <c r="E6">
-        <v>1.012428516309807</v>
+        <v>1.029426511884272</v>
       </c>
       <c r="F6">
-        <v>1.038137679776064</v>
+        <v>1.051781114423807</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048019700503571</v>
+        <v>1.037911077343549</v>
       </c>
       <c r="J6">
-        <v>1.026278032940276</v>
+        <v>1.034108243905434</v>
       </c>
       <c r="K6">
-        <v>1.049125313183239</v>
+        <v>1.048833067051665</v>
       </c>
       <c r="L6">
-        <v>1.022121235078316</v>
+        <v>1.031866305414958</v>
       </c>
       <c r="M6">
-        <v>1.047547124634848</v>
+        <v>1.054166333292853</v>
       </c>
       <c r="N6">
-        <v>1.027735465462787</v>
+        <v>1.035576796225653</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006358845419886</v>
+        <v>1.029388373719268</v>
       </c>
       <c r="D7">
-        <v>1.038885605324988</v>
+        <v>1.046242455012564</v>
       </c>
       <c r="E7">
-        <v>1.011449519370622</v>
+        <v>1.029196126465063</v>
       </c>
       <c r="F7">
-        <v>1.037058087515746</v>
+        <v>1.051526461695465</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047709956804897</v>
+        <v>1.037856770784697</v>
       </c>
       <c r="J7">
-        <v>1.025595246499138</v>
+        <v>1.033949837621047</v>
       </c>
       <c r="K7">
-        <v>1.048533466387261</v>
+        <v>1.048700106987362</v>
       </c>
       <c r="L7">
-        <v>1.021408739486048</v>
+        <v>1.031696723980152</v>
       </c>
       <c r="M7">
-        <v>1.046726058590031</v>
+        <v>1.053971105633033</v>
       </c>
       <c r="N7">
-        <v>1.027051709386586</v>
+        <v>1.035418164986172</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.001107534149972</v>
+        <v>1.028254054994801</v>
       </c>
       <c r="D8">
-        <v>1.035285490497848</v>
+        <v>1.045438531718014</v>
       </c>
       <c r="E8">
-        <v>1.007293126440087</v>
+        <v>1.028235081506536</v>
       </c>
       <c r="F8">
-        <v>1.032474303800948</v>
+        <v>1.050464054631241</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046374459084269</v>
+        <v>1.037627953293901</v>
       </c>
       <c r="J8">
-        <v>1.022683657905326</v>
+        <v>1.033287770499425</v>
       </c>
       <c r="K8">
-        <v>1.04600780348683</v>
+        <v>1.048143932257547</v>
       </c>
       <c r="L8">
-        <v>1.018375205694722</v>
+        <v>1.030988475232242</v>
       </c>
       <c r="M8">
-        <v>1.043231648335265</v>
+        <v>1.053155756511298</v>
       </c>
       <c r="N8">
-        <v>1.024135986003007</v>
+        <v>1.034755157653299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9914652048266132</v>
+        <v>1.026260401585669</v>
       </c>
       <c r="D9">
-        <v>1.028708456873724</v>
+        <v>1.0440257583497</v>
       </c>
       <c r="E9">
-        <v>0.9997104604793997</v>
+        <v>1.02654898201188</v>
       </c>
       <c r="F9">
-        <v>1.024111642783337</v>
+        <v>1.048599630571652</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043861166173629</v>
+        <v>1.037217915729949</v>
       </c>
       <c r="J9">
-        <v>1.017322990862586</v>
+        <v>1.03212137539312</v>
       </c>
       <c r="K9">
-        <v>1.041352318852597</v>
+        <v>1.04716237544088</v>
       </c>
       <c r="L9">
-        <v>1.012808237007611</v>
+        <v>1.029742701625304</v>
       </c>
       <c r="M9">
-        <v>1.036825273531755</v>
+        <v>1.051721647212633</v>
       </c>
       <c r="N9">
-        <v>1.018767706198189</v>
+        <v>1.033587106132155</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9847496633317839</v>
+        <v>1.024934859074966</v>
       </c>
       <c r="D10">
-        <v>1.024154905400793</v>
+        <v>1.04308660457672</v>
       </c>
       <c r="E10">
-        <v>0.994465440108307</v>
+        <v>1.025429984514258</v>
       </c>
       <c r="F10">
-        <v>1.018327805278285</v>
+        <v>1.047361961868533</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042071931072239</v>
+        <v>1.03694000673516</v>
       </c>
       <c r="J10">
-        <v>1.013581689755245</v>
+        <v>1.031344021042801</v>
       </c>
       <c r="K10">
-        <v>1.03810131426961</v>
+        <v>1.046507073165695</v>
       </c>
       <c r="L10">
-        <v>1.008935346968756</v>
+        <v>1.028913778528415</v>
       </c>
       <c r="M10">
-        <v>1.032373846922443</v>
+        <v>1.050767450685119</v>
       </c>
       <c r="N10">
-        <v>1.015021092014142</v>
+        <v>1.032808647849495</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9817674125906359</v>
+        <v>1.02436174767518</v>
       </c>
       <c r="D11">
-        <v>1.022140247734974</v>
+        <v>1.042680603568425</v>
       </c>
       <c r="E11">
-        <v>0.9921454192963491</v>
+        <v>1.024946670456541</v>
       </c>
       <c r="F11">
-        <v>1.015769841589946</v>
+        <v>1.046827315935871</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041268733230275</v>
+        <v>1.036818598747012</v>
       </c>
       <c r="J11">
-        <v>1.011918863691692</v>
+        <v>1.031007490918318</v>
       </c>
       <c r="K11">
-        <v>1.036656370644049</v>
+        <v>1.046223116423562</v>
       </c>
       <c r="L11">
-        <v>1.007216997387281</v>
+        <v>1.028555240107645</v>
       </c>
       <c r="M11">
-        <v>1.030400365969784</v>
+        <v>1.050354739521429</v>
       </c>
       <c r="N11">
-        <v>1.01335590454685</v>
+        <v>1.032471639813635</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9806479323293352</v>
+        <v>1.024148998877867</v>
       </c>
       <c r="D12">
-        <v>1.021385203460161</v>
+        <v>1.042529897615441</v>
       </c>
       <c r="E12">
-        <v>0.9912759674673687</v>
+        <v>1.024767331054434</v>
       </c>
       <c r="F12">
-        <v>1.014811297353709</v>
+        <v>1.046628917946388</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040965982066233</v>
+        <v>1.036773342138919</v>
       </c>
       <c r="J12">
-        <v>1.01129450386536</v>
+        <v>1.030882500313437</v>
       </c>
       <c r="K12">
-        <v>1.036113853481117</v>
+        <v>1.046117612605252</v>
       </c>
       <c r="L12">
-        <v>1.006572236743023</v>
+        <v>1.028422123024123</v>
       </c>
       <c r="M12">
-        <v>1.029660133156553</v>
+        <v>1.050201511397276</v>
       </c>
       <c r="N12">
-        <v>1.01273065805795</v>
+        <v>1.032346471707757</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9808886053503575</v>
+        <v>1.024194628296833</v>
       </c>
       <c r="D13">
-        <v>1.021547471018649</v>
+        <v>1.042562219957179</v>
       </c>
       <c r="E13">
-        <v>0.9914628217517869</v>
+        <v>1.024805791566624</v>
       </c>
       <c r="F13">
-        <v>1.015017294607339</v>
+        <v>1.046671466207094</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041031124914246</v>
+        <v>1.036783057076308</v>
       </c>
       <c r="J13">
-        <v>1.011428739578955</v>
+        <v>1.030909310674665</v>
       </c>
       <c r="K13">
-        <v>1.036230491193206</v>
+        <v>1.046140244851464</v>
       </c>
       <c r="L13">
-        <v>1.006710838329601</v>
+        <v>1.028450674351452</v>
       </c>
       <c r="M13">
-        <v>1.029819245921389</v>
+        <v>1.050234376101276</v>
       </c>
       <c r="N13">
-        <v>1.012865084401655</v>
+        <v>1.032373320142774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9816751188790954</v>
+        <v>1.02434415912656</v>
       </c>
       <c r="D14">
-        <v>1.022077973986772</v>
+        <v>1.042668144097912</v>
       </c>
       <c r="E14">
-        <v>0.992073709147134</v>
+        <v>1.024931842422225</v>
       </c>
       <c r="F14">
-        <v>1.015690781595447</v>
+        <v>1.046810912340497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041243798442671</v>
+        <v>1.036814861087107</v>
       </c>
       <c r="J14">
-        <v>1.01186739251459</v>
+        <v>1.030997158910772</v>
       </c>
       <c r="K14">
-        <v>1.036611645574043</v>
+        <v>1.046214396041674</v>
       </c>
       <c r="L14">
-        <v>1.007163835293903</v>
+        <v>1.028544235375222</v>
       </c>
       <c r="M14">
-        <v>1.030339326560577</v>
+        <v>1.050342072174854</v>
       </c>
       <c r="N14">
-        <v>1.013304360274773</v>
+        <v>1.032461293133452</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9821581427166014</v>
+        <v>1.024436307316157</v>
       </c>
       <c r="D15">
-        <v>1.022403937138141</v>
+        <v>1.042733420884546</v>
       </c>
       <c r="E15">
-        <v>0.9924490669340943</v>
+        <v>1.02500953107661</v>
       </c>
       <c r="F15">
-        <v>1.016104614581167</v>
+        <v>1.046896855384311</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041374245419627</v>
+        <v>1.036834435371141</v>
       </c>
       <c r="J15">
-        <v>1.012136762997951</v>
+        <v>1.031051286691388</v>
       </c>
       <c r="K15">
-        <v>1.036845712342507</v>
+        <v>1.04626007915103</v>
       </c>
       <c r="L15">
-        <v>1.007442073308998</v>
+        <v>1.028601889407265</v>
       </c>
       <c r="M15">
-        <v>1.030658803302622</v>
+        <v>1.050408436763813</v>
       </c>
       <c r="N15">
-        <v>1.013574113295118</v>
+        <v>1.032515497781725</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9849459710000613</v>
+        <v>1.024972912780505</v>
       </c>
       <c r="D16">
-        <v>1.024287685074091</v>
+        <v>1.043113563570533</v>
       </c>
       <c r="E16">
-        <v>0.9946183529570263</v>
+        <v>1.025462086316614</v>
       </c>
       <c r="F16">
-        <v>1.018496410835412</v>
+        <v>1.047397471553095</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042124626071125</v>
+        <v>1.036948041667874</v>
       </c>
       <c r="J16">
-        <v>1.013691120461496</v>
+        <v>1.031366357007219</v>
       </c>
       <c r="K16">
-        <v>1.038196408529789</v>
+        <v>1.046525914206581</v>
       </c>
       <c r="L16">
-        <v>1.009048493618803</v>
+        <v>1.028937581889972</v>
       </c>
       <c r="M16">
-        <v>1.032503827517274</v>
+        <v>1.050794850852432</v>
       </c>
       <c r="N16">
-        <v>1.015130678124548</v>
+        <v>1.032831015533544</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9866744010218473</v>
+        <v>1.025309741781299</v>
       </c>
       <c r="D17">
-        <v>1.025457635386342</v>
+        <v>1.043352194766747</v>
       </c>
       <c r="E17">
-        <v>0.9959657599801818</v>
+        <v>1.025746289945936</v>
       </c>
       <c r="F17">
-        <v>1.019982142764273</v>
+        <v>1.047711837088263</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042587611853634</v>
+        <v>1.037019017513039</v>
       </c>
       <c r="J17">
-        <v>1.014654472293318</v>
+        <v>1.03156401175458</v>
       </c>
       <c r="K17">
-        <v>1.039033553092186</v>
+        <v>1.046692611199153</v>
       </c>
       <c r="L17">
-        <v>1.0100448957253</v>
+        <v>1.02914825847926</v>
       </c>
       <c r="M17">
-        <v>1.033648654685338</v>
+        <v>1.051037363177038</v>
       </c>
       <c r="N17">
-        <v>1.016095398026469</v>
+        <v>1.033028950973317</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9876754286935607</v>
+        <v>1.025506291050458</v>
       </c>
       <c r="D18">
-        <v>1.026135922794308</v>
+        <v>1.043491447739254</v>
       </c>
       <c r="E18">
-        <v>0.9967469867858906</v>
+        <v>1.02591217863447</v>
       </c>
       <c r="F18">
-        <v>1.020843606215901</v>
+        <v>1.047895323851049</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042854928330274</v>
+        <v>1.037060313084774</v>
       </c>
       <c r="J18">
-        <v>1.015212267529574</v>
+        <v>1.031679307041647</v>
       </c>
       <c r="K18">
-        <v>1.039518267038306</v>
+        <v>1.046789822714178</v>
       </c>
       <c r="L18">
-        <v>1.010622108723819</v>
+        <v>1.029271180181021</v>
       </c>
       <c r="M18">
-        <v>1.034311996345195</v>
+        <v>1.051178860995236</v>
       </c>
       <c r="N18">
-        <v>1.016653985395941</v>
+        <v>1.033144409992917</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9880155594124588</v>
+        <v>1.025573323238716</v>
       </c>
       <c r="D19">
-        <v>1.026366509279713</v>
+        <v>1.043538940104982</v>
       </c>
       <c r="E19">
-        <v>0.9970125791551417</v>
+        <v>1.025968762269524</v>
       </c>
       <c r="F19">
-        <v>1.021136481995905</v>
+        <v>1.047957908837794</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042945616322469</v>
+        <v>1.037074376240993</v>
       </c>
       <c r="J19">
-        <v>1.0154017721006</v>
+        <v>1.031718620839838</v>
       </c>
       <c r="K19">
-        <v>1.03968294109771</v>
+        <v>1.046822965890574</v>
       </c>
       <c r="L19">
-        <v>1.010818257885618</v>
+        <v>1.029313099643428</v>
       </c>
       <c r="M19">
-        <v>1.034537437975405</v>
+        <v>1.051227115586828</v>
       </c>
       <c r="N19">
-        <v>1.016843759085194</v>
+        <v>1.033183779621211</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9864896989548702</v>
+        <v>1.025273594661478</v>
       </c>
       <c r="D20">
-        <v>1.025332539269848</v>
+        <v>1.043326585322705</v>
       </c>
       <c r="E20">
-        <v>0.995821683814511</v>
+        <v>1.025715785417701</v>
       </c>
       <c r="F20">
-        <v>1.019823271871557</v>
+        <v>1.047678095938571</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042538221727956</v>
+        <v>1.037011413170485</v>
       </c>
       <c r="J20">
-        <v>1.014551541004917</v>
+        <v>1.031542804577436</v>
       </c>
       <c r="K20">
-        <v>1.038944106979292</v>
+        <v>1.046674728250252</v>
       </c>
       <c r="L20">
-        <v>1.009938403933848</v>
+        <v>1.029125650975009</v>
       </c>
       <c r="M20">
-        <v>1.03352628441335</v>
+        <v>1.051011339286212</v>
       </c>
       <c r="N20">
-        <v>1.015992320563832</v>
+        <v>1.033007713679549</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9814438390344008</v>
+        <v>1.02430012241532</v>
       </c>
       <c r="D21">
-        <v>1.021921941489525</v>
+        <v>1.042636949277812</v>
       </c>
       <c r="E21">
-        <v>0.9918940332852152</v>
+        <v>1.024894718466929</v>
       </c>
       <c r="F21">
-        <v>1.015492691420544</v>
+        <v>1.046769843576564</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04118129417892</v>
+        <v>1.036805500017269</v>
       </c>
       <c r="J21">
-        <v>1.011738407775314</v>
+        <v>1.030971289462801</v>
       </c>
       <c r="K21">
-        <v>1.036499566954258</v>
+        <v>1.046192561171423</v>
       </c>
       <c r="L21">
-        <v>1.007030620399322</v>
+        <v>1.028516682317205</v>
       </c>
       <c r="M21">
-        <v>1.030186376742941</v>
+        <v>1.050310356386662</v>
       </c>
       <c r="N21">
-        <v>1.013175192362373</v>
+        <v>1.032435386947898</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9782030791180534</v>
+        <v>1.023688816366813</v>
       </c>
       <c r="D22">
-        <v>1.019738598134631</v>
+        <v>1.042203932444195</v>
       </c>
       <c r="E22">
-        <v>0.9893798683473793</v>
+        <v>1.024379552080431</v>
       </c>
       <c r="F22">
-        <v>1.012721074744376</v>
+        <v>1.046199908764751</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04030256609773</v>
+        <v>1.036675107294662</v>
       </c>
       <c r="J22">
-        <v>1.009930693794481</v>
+        <v>1.030612023342537</v>
       </c>
       <c r="K22">
-        <v>1.034928915356439</v>
+        <v>1.045889232783986</v>
       </c>
       <c r="L22">
-        <v>1.005164689292586</v>
+        <v>1.028134147647524</v>
       </c>
       <c r="M22">
-        <v>1.028044667876087</v>
+        <v>1.049870033287208</v>
       </c>
       <c r="N22">
-        <v>1.011364911220339</v>
+        <v>1.032075610628535</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9799277325492373</v>
+        <v>1.024012809240415</v>
       </c>
       <c r="D23">
-        <v>1.020899813621262</v>
+        <v>1.042433426793932</v>
       </c>
       <c r="E23">
-        <v>0.9907170326654394</v>
+        <v>1.024652549416982</v>
       </c>
       <c r="F23">
-        <v>1.014195113680144</v>
+        <v>1.046501935177856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040770867379398</v>
+        <v>1.036744318569333</v>
       </c>
       <c r="J23">
-        <v>1.010892790277434</v>
+        <v>1.030802470241249</v>
       </c>
       <c r="K23">
-        <v>1.03576481121381</v>
+        <v>1.046050048628655</v>
       </c>
       <c r="L23">
-        <v>1.006157523578485</v>
+        <v>1.028336903069496</v>
       </c>
       <c r="M23">
-        <v>1.029184087827802</v>
+        <v>1.050103417198371</v>
       </c>
       <c r="N23">
-        <v>1.012328373990651</v>
+        <v>1.032266327983688</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9865731798810238</v>
+        <v>1.025289927733905</v>
       </c>
       <c r="D24">
-        <v>1.02538907754885</v>
+        <v>1.043338156932379</v>
       </c>
       <c r="E24">
-        <v>0.9958868001098872</v>
+        <v>1.02572956873807</v>
       </c>
       <c r="F24">
-        <v>1.019895074644423</v>
+        <v>1.047693341733005</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042560547443037</v>
+        <v>1.037014849565254</v>
       </c>
       <c r="J24">
-        <v>1.014598063909509</v>
+        <v>1.031552387167639</v>
       </c>
       <c r="K24">
-        <v>1.038984534870956</v>
+        <v>1.046682808847136</v>
       </c>
       <c r="L24">
-        <v>1.009986535243958</v>
+        <v>1.029135866217005</v>
       </c>
       <c r="M24">
-        <v>1.033581591900402</v>
+        <v>1.051023098225071</v>
       </c>
       <c r="N24">
-        <v>1.016038909536285</v>
+        <v>1.03301730987813</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9940066315793534</v>
+        <v>1.026775187932826</v>
       </c>
       <c r="D25">
-        <v>1.030437616357352</v>
+        <v>1.044390527272205</v>
       </c>
       <c r="E25">
-        <v>1.001703003555618</v>
+        <v>1.026983993334426</v>
       </c>
       <c r="F25">
-        <v>1.026309095254717</v>
+        <v>1.049080707043333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044530482239651</v>
+        <v>1.03732472548448</v>
       </c>
       <c r="J25">
-        <v>1.01873739374442</v>
+        <v>1.032422879121261</v>
       </c>
       <c r="K25">
-        <v>1.04258111250644</v>
+        <v>1.047416301470133</v>
       </c>
       <c r="L25">
-        <v>1.014274939987241</v>
+        <v>1.030064489039854</v>
       </c>
       <c r="M25">
-        <v>1.038512276963249</v>
+        <v>1.052092075541583</v>
       </c>
       <c r="N25">
-        <v>1.020184117694349</v>
+        <v>1.033889038030173</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_134/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027962381949805</v>
+        <v>0.9997301428600731</v>
       </c>
       <c r="D2">
-        <v>1.045231825614765</v>
+        <v>1.034343272100525</v>
       </c>
       <c r="E2">
-        <v>1.027988166594529</v>
+        <v>1.006206113422399</v>
       </c>
       <c r="F2">
-        <v>1.050191063879345</v>
+        <v>1.031275466046671</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037568581012903</v>
+        <v>1.046020004008012</v>
       </c>
       <c r="J2">
-        <v>1.033117341719321</v>
+        <v>1.021918928304623</v>
       </c>
       <c r="K2">
-        <v>1.04800064490111</v>
+        <v>1.045344019084143</v>
       </c>
       <c r="L2">
-        <v>1.030806292901606</v>
+        <v>1.017579659073814</v>
       </c>
       <c r="M2">
-        <v>1.052946027730943</v>
+        <v>1.042315623197452</v>
       </c>
       <c r="N2">
-        <v>1.034584486844778</v>
+        <v>1.023370170398554</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02882584588133</v>
+        <v>1.003775430633548</v>
       </c>
       <c r="D3">
-        <v>1.04584376820937</v>
+        <v>1.037112961608134</v>
       </c>
       <c r="E3">
-        <v>1.028719369715356</v>
+        <v>1.009402326005011</v>
       </c>
       <c r="F3">
-        <v>1.050999447347006</v>
+        <v>1.034800436907814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037743714415541</v>
+        <v>1.047056203294612</v>
       </c>
       <c r="J3">
-        <v>1.033621654474429</v>
+        <v>1.024163700073355</v>
       </c>
       <c r="K3">
-        <v>1.048424505975594</v>
+        <v>1.047292015330489</v>
       </c>
       <c r="L3">
-        <v>1.031345543910449</v>
+        <v>1.019916299395779</v>
       </c>
       <c r="M3">
-        <v>1.053566818494378</v>
+        <v>1.045006591179091</v>
       </c>
       <c r="N3">
-        <v>1.035089515781843</v>
+        <v>1.025618130000677</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029385229942504</v>
+        <v>1.00634452026346</v>
       </c>
       <c r="D4">
-        <v>1.046240226850495</v>
+        <v>1.038875767819198</v>
       </c>
       <c r="E4">
-        <v>1.02919346116083</v>
+        <v>1.011438154427738</v>
       </c>
       <c r="F4">
-        <v>1.051523515572686</v>
+        <v>1.037045554580754</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037856141267098</v>
+        <v>1.047706349890464</v>
       </c>
       <c r="J4">
-        <v>1.033948004333404</v>
+        <v>1.025587313257926</v>
       </c>
       <c r="K4">
-        <v>1.04869856794312</v>
+        <v>1.048526588676488</v>
       </c>
       <c r="L4">
-        <v>1.031694761646936</v>
+        <v>1.021400463625575</v>
       </c>
       <c r="M4">
-        <v>1.053968846536131</v>
+        <v>1.046716522347393</v>
       </c>
       <c r="N4">
-        <v>1.035416329095051</v>
+        <v>1.027043764879261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02962055273454</v>
+        <v>1.007413330088193</v>
       </c>
       <c r="D5">
-        <v>1.046407013703913</v>
+        <v>1.039609996401119</v>
       </c>
       <c r="E5">
-        <v>1.029392995884252</v>
+        <v>1.012286507799501</v>
       </c>
       <c r="F5">
-        <v>1.051744068839513</v>
+        <v>1.037981081659588</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03790319025516</v>
+        <v>1.047974889457558</v>
       </c>
       <c r="J5">
-        <v>1.034085206759929</v>
+        <v>1.026179064968803</v>
       </c>
       <c r="K5">
-        <v>1.048813733275878</v>
+        <v>1.049039538405896</v>
       </c>
       <c r="L5">
-        <v>1.031841639991947</v>
+        <v>1.022017933565533</v>
       </c>
       <c r="M5">
-        <v>1.054137937605476</v>
+        <v>1.047428074673923</v>
       </c>
       <c r="N5">
-        <v>1.035553726364759</v>
+        <v>1.027636356945443</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029660073672571</v>
+        <v>1.007592139599111</v>
       </c>
       <c r="D6">
-        <v>1.046435024677215</v>
+        <v>1.039732879599394</v>
       </c>
       <c r="E6">
-        <v>1.029426511884272</v>
+        <v>1.012428516309806</v>
       </c>
       <c r="F6">
-        <v>1.051781114423807</v>
+        <v>1.038137679776064</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037911077343549</v>
+        <v>1.048019700503571</v>
       </c>
       <c r="J6">
-        <v>1.034108243905434</v>
+        <v>1.026278032940275</v>
       </c>
       <c r="K6">
-        <v>1.048833067051665</v>
+        <v>1.049125313183239</v>
       </c>
       <c r="L6">
-        <v>1.031866305414958</v>
+        <v>1.022121235078315</v>
       </c>
       <c r="M6">
-        <v>1.054166333292853</v>
+        <v>1.047547124634847</v>
       </c>
       <c r="N6">
-        <v>1.035576796225653</v>
+        <v>1.027735465462786</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029388373719268</v>
+        <v>1.006358845419885</v>
       </c>
       <c r="D7">
-        <v>1.046242455012564</v>
+        <v>1.038885605324987</v>
       </c>
       <c r="E7">
-        <v>1.029196126465063</v>
+        <v>1.011449519370621</v>
       </c>
       <c r="F7">
-        <v>1.051526461695465</v>
+        <v>1.037058087515745</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037856770784697</v>
+        <v>1.047709956804897</v>
       </c>
       <c r="J7">
-        <v>1.033949837621047</v>
+        <v>1.025595246499137</v>
       </c>
       <c r="K7">
-        <v>1.048700106987362</v>
+        <v>1.048533466387261</v>
       </c>
       <c r="L7">
-        <v>1.031696723980152</v>
+        <v>1.021408739486046</v>
       </c>
       <c r="M7">
-        <v>1.053971105633033</v>
+        <v>1.04672605859003</v>
       </c>
       <c r="N7">
-        <v>1.035418164986172</v>
+        <v>1.027051709386585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028254054994801</v>
+        <v>1.001107534149972</v>
       </c>
       <c r="D8">
-        <v>1.045438531718014</v>
+        <v>1.035285490497848</v>
       </c>
       <c r="E8">
-        <v>1.028235081506536</v>
+        <v>1.007293126440087</v>
       </c>
       <c r="F8">
-        <v>1.050464054631241</v>
+        <v>1.032474303800949</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037627953293901</v>
+        <v>1.046374459084269</v>
       </c>
       <c r="J8">
-        <v>1.033287770499425</v>
+        <v>1.022683657905326</v>
       </c>
       <c r="K8">
-        <v>1.048143932257547</v>
+        <v>1.04600780348683</v>
       </c>
       <c r="L8">
-        <v>1.030988475232242</v>
+        <v>1.018375205694721</v>
       </c>
       <c r="M8">
-        <v>1.053155756511298</v>
+        <v>1.043231648335265</v>
       </c>
       <c r="N8">
-        <v>1.034755157653299</v>
+        <v>1.024135986003006</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026260401585669</v>
+        <v>0.9914652048266135</v>
       </c>
       <c r="D9">
-        <v>1.0440257583497</v>
+        <v>1.028708456873725</v>
       </c>
       <c r="E9">
-        <v>1.02654898201188</v>
+        <v>0.9997104604794</v>
       </c>
       <c r="F9">
-        <v>1.048599630571652</v>
+        <v>1.024111642783338</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037217915729949</v>
+        <v>1.043861166173629</v>
       </c>
       <c r="J9">
-        <v>1.03212137539312</v>
+        <v>1.017322990862587</v>
       </c>
       <c r="K9">
-        <v>1.04716237544088</v>
+        <v>1.041352318852597</v>
       </c>
       <c r="L9">
-        <v>1.029742701625304</v>
+        <v>1.012808237007611</v>
       </c>
       <c r="M9">
-        <v>1.051721647212633</v>
+        <v>1.036825273531756</v>
       </c>
       <c r="N9">
-        <v>1.033587106132155</v>
+        <v>1.018767706198189</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024934859074966</v>
+        <v>0.984749663331783</v>
       </c>
       <c r="D10">
-        <v>1.04308660457672</v>
+        <v>1.024154905400792</v>
       </c>
       <c r="E10">
-        <v>1.025429984514258</v>
+        <v>0.9944654401083058</v>
       </c>
       <c r="F10">
-        <v>1.047361961868533</v>
+        <v>1.018327805278284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03694000673516</v>
+        <v>1.042071931072239</v>
       </c>
       <c r="J10">
-        <v>1.031344021042801</v>
+        <v>1.013581689755244</v>
       </c>
       <c r="K10">
-        <v>1.046507073165695</v>
+        <v>1.038101314269609</v>
       </c>
       <c r="L10">
-        <v>1.028913778528415</v>
+        <v>1.008935346968755</v>
       </c>
       <c r="M10">
-        <v>1.050767450685119</v>
+        <v>1.032373846922442</v>
       </c>
       <c r="N10">
-        <v>1.032808647849495</v>
+        <v>1.015021092014141</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02436174767518</v>
+        <v>0.9817674125906355</v>
       </c>
       <c r="D11">
-        <v>1.042680603568425</v>
+        <v>1.022140247734974</v>
       </c>
       <c r="E11">
-        <v>1.024946670456541</v>
+        <v>0.9921454192963485</v>
       </c>
       <c r="F11">
-        <v>1.046827315935871</v>
+        <v>1.015769841589947</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036818598747012</v>
+        <v>1.041268733230275</v>
       </c>
       <c r="J11">
-        <v>1.031007490918318</v>
+        <v>1.011918863691692</v>
       </c>
       <c r="K11">
-        <v>1.046223116423562</v>
+        <v>1.036656370644049</v>
       </c>
       <c r="L11">
-        <v>1.028555240107645</v>
+        <v>1.007216997387281</v>
       </c>
       <c r="M11">
-        <v>1.050354739521429</v>
+        <v>1.030400365969784</v>
       </c>
       <c r="N11">
-        <v>1.032471639813635</v>
+        <v>1.01335590454685</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024148998877867</v>
+        <v>0.9806479323293347</v>
       </c>
       <c r="D12">
-        <v>1.042529897615441</v>
+        <v>1.02138520346016</v>
       </c>
       <c r="E12">
-        <v>1.024767331054434</v>
+        <v>0.9912759674673681</v>
       </c>
       <c r="F12">
-        <v>1.046628917946388</v>
+        <v>1.014811297353709</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036773342138919</v>
+        <v>1.040965982066233</v>
       </c>
       <c r="J12">
-        <v>1.030882500313437</v>
+        <v>1.011294503865359</v>
       </c>
       <c r="K12">
-        <v>1.046117612605252</v>
+        <v>1.036113853481116</v>
       </c>
       <c r="L12">
-        <v>1.028422123024123</v>
+        <v>1.006572236743023</v>
       </c>
       <c r="M12">
-        <v>1.050201511397276</v>
+        <v>1.029660133156552</v>
       </c>
       <c r="N12">
-        <v>1.032346471707757</v>
+        <v>1.012730658057949</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024194628296833</v>
+        <v>0.9808886053503569</v>
       </c>
       <c r="D13">
-        <v>1.042562219957179</v>
+        <v>1.021547471018649</v>
       </c>
       <c r="E13">
-        <v>1.024805791566624</v>
+        <v>0.9914628217517865</v>
       </c>
       <c r="F13">
-        <v>1.046671466207094</v>
+        <v>1.015017294607339</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036783057076308</v>
+        <v>1.041031124914246</v>
       </c>
       <c r="J13">
-        <v>1.030909310674665</v>
+        <v>1.011428739578954</v>
       </c>
       <c r="K13">
-        <v>1.046140244851464</v>
+        <v>1.036230491193206</v>
       </c>
       <c r="L13">
-        <v>1.028450674351452</v>
+        <v>1.0067108383296</v>
       </c>
       <c r="M13">
-        <v>1.050234376101276</v>
+        <v>1.029819245921389</v>
       </c>
       <c r="N13">
-        <v>1.032373320142774</v>
+        <v>1.012865084401654</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02434415912656</v>
+        <v>0.9816751188790946</v>
       </c>
       <c r="D14">
-        <v>1.042668144097912</v>
+        <v>1.022077973986772</v>
       </c>
       <c r="E14">
-        <v>1.024931842422225</v>
+        <v>0.9920737091471333</v>
       </c>
       <c r="F14">
-        <v>1.046810912340497</v>
+        <v>1.015690781595447</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036814861087107</v>
+        <v>1.041243798442671</v>
       </c>
       <c r="J14">
-        <v>1.030997158910772</v>
+        <v>1.01186739251459</v>
       </c>
       <c r="K14">
-        <v>1.046214396041674</v>
+        <v>1.036611645574043</v>
       </c>
       <c r="L14">
-        <v>1.028544235375222</v>
+        <v>1.007163835293903</v>
       </c>
       <c r="M14">
-        <v>1.050342072174854</v>
+        <v>1.030339326560577</v>
       </c>
       <c r="N14">
-        <v>1.032461293133452</v>
+        <v>1.013304360274772</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.024436307316157</v>
+        <v>0.9821581427166006</v>
       </c>
       <c r="D15">
-        <v>1.042733420884546</v>
+        <v>1.022403937138141</v>
       </c>
       <c r="E15">
-        <v>1.02500953107661</v>
+        <v>0.9924490669340932</v>
       </c>
       <c r="F15">
-        <v>1.046896855384311</v>
+        <v>1.016104614581167</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036834435371141</v>
+        <v>1.041374245419627</v>
       </c>
       <c r="J15">
-        <v>1.031051286691388</v>
+        <v>1.012136762997951</v>
       </c>
       <c r="K15">
-        <v>1.04626007915103</v>
+        <v>1.036845712342507</v>
       </c>
       <c r="L15">
-        <v>1.028601889407265</v>
+        <v>1.007442073308997</v>
       </c>
       <c r="M15">
-        <v>1.050408436763813</v>
+        <v>1.030658803302622</v>
       </c>
       <c r="N15">
-        <v>1.032515497781725</v>
+        <v>1.013574113295117</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024972912780505</v>
+        <v>0.9849459710000605</v>
       </c>
       <c r="D16">
-        <v>1.043113563570533</v>
+        <v>1.024287685074091</v>
       </c>
       <c r="E16">
-        <v>1.025462086316614</v>
+        <v>0.9946183529570252</v>
       </c>
       <c r="F16">
-        <v>1.047397471553095</v>
+        <v>1.018496410835412</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036948041667874</v>
+        <v>1.042124626071124</v>
       </c>
       <c r="J16">
-        <v>1.031366357007219</v>
+        <v>1.013691120461495</v>
       </c>
       <c r="K16">
-        <v>1.046525914206581</v>
+        <v>1.038196408529789</v>
       </c>
       <c r="L16">
-        <v>1.028937581889972</v>
+        <v>1.009048493618802</v>
       </c>
       <c r="M16">
-        <v>1.050794850852432</v>
+        <v>1.032503827517273</v>
       </c>
       <c r="N16">
-        <v>1.032831015533544</v>
+        <v>1.015130678124547</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025309741781299</v>
+        <v>0.986674401021846</v>
       </c>
       <c r="D17">
-        <v>1.043352194766747</v>
+        <v>1.025457635386341</v>
       </c>
       <c r="E17">
-        <v>1.025746289945936</v>
+        <v>0.9959657599801799</v>
       </c>
       <c r="F17">
-        <v>1.047711837088263</v>
+        <v>1.019982142764273</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037019017513039</v>
+        <v>1.042587611853634</v>
       </c>
       <c r="J17">
-        <v>1.03156401175458</v>
+        <v>1.014654472293317</v>
       </c>
       <c r="K17">
-        <v>1.046692611199153</v>
+        <v>1.039033553092186</v>
       </c>
       <c r="L17">
-        <v>1.02914825847926</v>
+        <v>1.010044895725298</v>
       </c>
       <c r="M17">
-        <v>1.051037363177038</v>
+        <v>1.033648654685337</v>
       </c>
       <c r="N17">
-        <v>1.033028950973317</v>
+        <v>1.016095398026468</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.025506291050458</v>
+        <v>0.9876754286935596</v>
       </c>
       <c r="D18">
-        <v>1.043491447739254</v>
+        <v>1.026135922794307</v>
       </c>
       <c r="E18">
-        <v>1.02591217863447</v>
+        <v>0.9967469867858895</v>
       </c>
       <c r="F18">
-        <v>1.047895323851049</v>
+        <v>1.020843606215901</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037060313084774</v>
+        <v>1.042854928330274</v>
       </c>
       <c r="J18">
-        <v>1.031679307041647</v>
+        <v>1.015212267529573</v>
       </c>
       <c r="K18">
-        <v>1.046789822714178</v>
+        <v>1.039518267038306</v>
       </c>
       <c r="L18">
-        <v>1.029271180181021</v>
+        <v>1.010622108723818</v>
       </c>
       <c r="M18">
-        <v>1.051178860995236</v>
+        <v>1.034311996345194</v>
       </c>
       <c r="N18">
-        <v>1.033144409992917</v>
+        <v>1.01665398539594</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025573323238716</v>
+        <v>0.9880155594124578</v>
       </c>
       <c r="D19">
-        <v>1.043538940104982</v>
+        <v>1.026366509279713</v>
       </c>
       <c r="E19">
-        <v>1.025968762269524</v>
+        <v>0.9970125791551404</v>
       </c>
       <c r="F19">
-        <v>1.047957908837794</v>
+        <v>1.021136481995904</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037074376240993</v>
+        <v>1.042945616322468</v>
       </c>
       <c r="J19">
-        <v>1.031718620839838</v>
+        <v>1.015401772100599</v>
       </c>
       <c r="K19">
-        <v>1.046822965890574</v>
+        <v>1.03968294109771</v>
       </c>
       <c r="L19">
-        <v>1.029313099643428</v>
+        <v>1.010818257885616</v>
       </c>
       <c r="M19">
-        <v>1.051227115586828</v>
+        <v>1.034537437975405</v>
       </c>
       <c r="N19">
-        <v>1.033183779621211</v>
+        <v>1.016843759085193</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025273594661478</v>
+        <v>0.9864896989548688</v>
       </c>
       <c r="D20">
-        <v>1.043326585322705</v>
+        <v>1.025332539269847</v>
       </c>
       <c r="E20">
-        <v>1.025715785417701</v>
+        <v>0.9958216838145094</v>
       </c>
       <c r="F20">
-        <v>1.047678095938571</v>
+        <v>1.019823271871556</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037011413170485</v>
+        <v>1.042538221727955</v>
       </c>
       <c r="J20">
-        <v>1.031542804577436</v>
+        <v>1.014551541004916</v>
       </c>
       <c r="K20">
-        <v>1.046674728250252</v>
+        <v>1.038944106979291</v>
       </c>
       <c r="L20">
-        <v>1.029125650975009</v>
+        <v>1.009938403933847</v>
       </c>
       <c r="M20">
-        <v>1.051011339286212</v>
+        <v>1.033526284413349</v>
       </c>
       <c r="N20">
-        <v>1.033007713679549</v>
+        <v>1.015992320563831</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02430012241532</v>
+        <v>0.9814438390343999</v>
       </c>
       <c r="D21">
-        <v>1.042636949277812</v>
+        <v>1.021921941489523</v>
       </c>
       <c r="E21">
-        <v>1.024894718466929</v>
+        <v>0.9918940332852145</v>
       </c>
       <c r="F21">
-        <v>1.046769843576564</v>
+        <v>1.015492691420543</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036805500017269</v>
+        <v>1.041181294178919</v>
       </c>
       <c r="J21">
-        <v>1.030971289462801</v>
+        <v>1.011738407775314</v>
       </c>
       <c r="K21">
-        <v>1.046192561171423</v>
+        <v>1.036499566954257</v>
       </c>
       <c r="L21">
-        <v>1.028516682317205</v>
+        <v>1.007030620399321</v>
       </c>
       <c r="M21">
-        <v>1.050310356386662</v>
+        <v>1.03018637674294</v>
       </c>
       <c r="N21">
-        <v>1.032435386947898</v>
+        <v>1.013175192362372</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023688816366813</v>
+        <v>0.9782030791180532</v>
       </c>
       <c r="D22">
-        <v>1.042203932444195</v>
+        <v>1.019738598134631</v>
       </c>
       <c r="E22">
-        <v>1.024379552080431</v>
+        <v>0.989379868347379</v>
       </c>
       <c r="F22">
-        <v>1.046199908764751</v>
+        <v>1.012721074744376</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036675107294662</v>
+        <v>1.040302566097729</v>
       </c>
       <c r="J22">
-        <v>1.030612023342537</v>
+        <v>1.009930693794481</v>
       </c>
       <c r="K22">
-        <v>1.045889232783986</v>
+        <v>1.034928915356439</v>
       </c>
       <c r="L22">
-        <v>1.028134147647524</v>
+        <v>1.005164689292586</v>
       </c>
       <c r="M22">
-        <v>1.049870033287208</v>
+        <v>1.028044667876087</v>
       </c>
       <c r="N22">
-        <v>1.032075610628535</v>
+        <v>1.011364911220339</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024012809240415</v>
+        <v>0.9799277325492369</v>
       </c>
       <c r="D23">
-        <v>1.042433426793932</v>
+        <v>1.020899813621262</v>
       </c>
       <c r="E23">
-        <v>1.024652549416982</v>
+        <v>0.990717032665439</v>
       </c>
       <c r="F23">
-        <v>1.046501935177856</v>
+        <v>1.014195113680143</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036744318569333</v>
+        <v>1.040770867379398</v>
       </c>
       <c r="J23">
-        <v>1.030802470241249</v>
+        <v>1.010892790277434</v>
       </c>
       <c r="K23">
-        <v>1.046050048628655</v>
+        <v>1.03576481121381</v>
       </c>
       <c r="L23">
-        <v>1.028336903069496</v>
+        <v>1.006157523578485</v>
       </c>
       <c r="M23">
-        <v>1.050103417198371</v>
+        <v>1.029184087827801</v>
       </c>
       <c r="N23">
-        <v>1.032266327983688</v>
+        <v>1.012328373990651</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025289927733905</v>
+        <v>0.9865731798810228</v>
       </c>
       <c r="D24">
-        <v>1.043338156932379</v>
+        <v>1.02538907754885</v>
       </c>
       <c r="E24">
-        <v>1.02572956873807</v>
+        <v>0.9958868001098865</v>
       </c>
       <c r="F24">
-        <v>1.047693341733005</v>
+        <v>1.019895074644423</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037014849565254</v>
+        <v>1.042560547443036</v>
       </c>
       <c r="J24">
-        <v>1.031552387167639</v>
+        <v>1.014598063909509</v>
       </c>
       <c r="K24">
-        <v>1.046682808847136</v>
+        <v>1.038984534870956</v>
       </c>
       <c r="L24">
-        <v>1.029135866217005</v>
+        <v>1.009986535243957</v>
       </c>
       <c r="M24">
-        <v>1.051023098225071</v>
+        <v>1.033581591900402</v>
       </c>
       <c r="N24">
-        <v>1.03301730987813</v>
+        <v>1.016038909536285</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026775187932826</v>
+        <v>0.994006631579353</v>
       </c>
       <c r="D25">
-        <v>1.044390527272205</v>
+        <v>1.030437616357352</v>
       </c>
       <c r="E25">
-        <v>1.026983993334426</v>
+        <v>1.001703003555617</v>
       </c>
       <c r="F25">
-        <v>1.049080707043333</v>
+        <v>1.026309095254717</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03732472548448</v>
+        <v>1.044530482239651</v>
       </c>
       <c r="J25">
-        <v>1.032422879121261</v>
+        <v>1.01873739374442</v>
       </c>
       <c r="K25">
-        <v>1.047416301470133</v>
+        <v>1.04258111250644</v>
       </c>
       <c r="L25">
-        <v>1.030064489039854</v>
+        <v>1.014274939987241</v>
       </c>
       <c r="M25">
-        <v>1.052092075541583</v>
+        <v>1.038512276963248</v>
       </c>
       <c r="N25">
-        <v>1.033889038030173</v>
+        <v>1.020184117694349</v>
       </c>
     </row>
   </sheetData>
